--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/15/seed5/result_data_KNN.xlsx
@@ -485,13 +485,13 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-13.68</v>
+        <v>-13.101</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.402</v>
+        <v>16.228</v>
       </c>
     </row>
     <row r="4">
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.508</v>
+        <v>-21.651</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.306</v>
+        <v>-12.586</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.248</v>
+        <v>16.306</v>
       </c>
     </row>
     <row r="21">
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.046</v>
+        <v>16.942</v>
       </c>
     </row>
     <row r="26">
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.802</v>
+        <v>-12.393</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.964</v>
+        <v>-21.876</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.628</v>
+        <v>16.108</v>
       </c>
     </row>
     <row r="31">
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.982</v>
+        <v>-13.306</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.822</v>
+        <v>-21.695</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.444</v>
+        <v>-12.762</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.048</v>
+        <v>-20.178</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-14.382</v>
+        <v>-13.329</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.558</v>
+        <v>-19.741</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.592</v>
+        <v>16.611</v>
       </c>
     </row>
     <row r="45">
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.464</v>
+        <v>-12.702</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.88</v>
+        <v>-21.879</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>15.708</v>
+        <v>16.209</v>
       </c>
     </row>
     <row r="48">
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.322</v>
+        <v>-11.286</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.66</v>
+        <v>-22.15</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.1</v>
+        <v>-22.145</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.248</v>
+        <v>-22.061</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.376</v>
+        <v>-13.829</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.728</v>
+        <v>16.593</v>
       </c>
     </row>
     <row r="59">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.586</v>
+        <v>-21.554</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.62</v>
+        <v>-21.656</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.22</v>
+        <v>-21.431</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.35</v>
+        <v>16.482</v>
       </c>
     </row>
     <row r="79">
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.884</v>
+        <v>-13.427</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.714</v>
+        <v>-21.627</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.214</v>
+        <v>-13.026</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.052</v>
+        <v>16.399</v>
       </c>
     </row>
     <row r="85">
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.496</v>
+        <v>-22.257</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.128</v>
+        <v>17.108</v>
       </c>
     </row>
     <row r="90">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.478</v>
+        <v>-21.508</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>17.278</v>
+        <v>17.39</v>
       </c>
     </row>
     <row r="92">
@@ -2004,12 +2004,12 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.262</v>
+        <v>17.293</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-22</v>
+        <v>-21.421</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>15.6</v>
+        <v>16.265</v>
       </c>
     </row>
     <row r="97">
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.64</v>
+        <v>-20.428</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.866</v>
+        <v>-12.578</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,13 +2168,13 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.032</v>
+        <v>-12.87</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.192</v>
+        <v>16.418</v>
       </c>
     </row>
   </sheetData>
